--- a/src/test/resources/com/w2a/excel/testdata.xlsx
+++ b/src/test/resources/com/w2a/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>TCID</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>khushbu.daga19@gmail.com</t>
-  </si>
-  <si>
-    <t>Test1@123</t>
   </si>
   <si>
     <t>CreateAccountTest</t>
@@ -392,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -419,7 +416,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -434,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,9 +456,7 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -469,7 +464,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,12 +481,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
